--- a/biology/Botanique/Château_des_d'Arbaud-Jouques/Château_des_d'Arbaud-Jouques.xlsx
+++ b/biology/Botanique/Château_des_d'Arbaud-Jouques/Château_des_d'Arbaud-Jouques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_des_d%27Arbaud-Jouques</t>
+          <t>Château_des_d'Arbaud-Jouques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château des d'Arbaud-Jouques est un château situé entre la montée du Piémont et le ruisseau du Réal, à Jouques, dans les Bouches-du-Rhône en France, dont il ne subsiste que les aménagements des jardins. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_des_d%27Arbaud-Jouques</t>
+          <t>Château_des_d'Arbaud-Jouques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille d'Arbaud est seigneur de Jouques. André Elzéard I d'Arbaud-Jouques (1676-1744), conseiller puis président à mortier au parlement d'Aix, marié à Anne de Citrany, a réalisé l'Hôtel d'Arbaud-Jouques, 19 cours Mirabeau, à Aix-en-Provence. De la correspondance entre André Elzéard I d'Arbaud-Jouques et Jean-Baptiste Franque, Patrick Jourdan attribue les plans de cet hôtel à François Franque avant son départ à l'Académie de France à Rome, en 1732, où il fut le camarade de Jacques-Germain Soufflot.
 Le fils d'André Elzéard I d'Arbaud-Jouques, Jean Joseph Augustin d'Arbaud-Jouques (1703-1775) a entrepris de reconstruire le château seigneurial des d'Arbaud au cœur du village de Jouques. Il a fait construire l'auditoire de justice et les prisons.
